--- a/Bibsam_tidskriftslistor/scifree_data_plos.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_plos.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_0B8D1EA7C1DC08CAAAF444D927E7599B0B2A310B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D77287-40AB-4F9E-B220-F121D219D03C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -145,33 +146,49 @@
   </si>
   <si>
     <t>https://journals.plos.org/water/</t>
+  </si>
+  <si>
+    <t>2767-3200</t>
+  </si>
+  <si>
+    <t>2767-3170</t>
+  </si>
+  <si>
+    <t>2767-3197</t>
+  </si>
+  <si>
+    <t>2767-3219</t>
+  </si>
+  <si>
+    <t>2837-8156</t>
+  </si>
+  <si>
+    <t>PLOS Mental Health</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/mentalhealth/</t>
+  </si>
+  <si>
+    <t>2837-8830</t>
+  </si>
+  <si>
+    <t>PLOS Complex Systems</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/complexsystems/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202020"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,34 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -235,19 +231,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G13"/>
-  <sortState ref="A2:G27">
-    <sortCondition ref="D1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4828232-EA87-49EB-85C0-E7FBA168EFED}" name="Table2" displayName="Table2" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{A4828232-EA87-49EB-85C0-E7FBA168EFED}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+    <sortCondition ref="D1:D15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{5883B40B-D2FA-4B61-AFC0-1E339F3BBB9D}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{3A6EA79F-31E7-45ED-993B-ED616E8EDA7A}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{DF2F709C-E5EB-4A9F-A4C9-FD26C4F370D9}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{5FF6B712-65D6-4869-A52D-1867631640DA}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{1AE03074-12A3-4F62-BD0C-2E84D88366D6}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{187DACDF-1753-4770-B78D-015D7FE413EC}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{48EC12B3-7020-46D9-BF8E-8A4B59146945}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,42 +511,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B544400-77B7-435C-ADD7-DE93BA806E78}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -558,7 +556,7 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
@@ -578,6 +576,9 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -595,14 +596,14 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -615,12 +616,14 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -634,13 +637,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -653,14 +656,14 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -673,14 +676,14 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
+      <c r="B8" t="s">
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -693,14 +696,14 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -713,14 +716,14 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
+      <c r="B10" t="s">
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -733,14 +736,14 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
+      <c r="B11" t="s">
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -753,12 +756,14 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -771,25 +776,66 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>